--- a/experimental_data/dilution_indicator/Koenig_dilution_indicator_data.xlsx
+++ b/experimental_data/dilution_indicator/Koenig_dilution_indicator_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="488" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="488" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Villeneuve2003" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="32">
   <si>
     <t>Hepatic.Microcirculation.Isolated.Perfused.Human.Liver_[Human]_Villeneuve1996</t>
   </si>
@@ -43,10 +43,34 @@
     <t>outflow fraction/ml (from logarithmic plot)</t>
   </si>
   <si>
+    <t>CSV data</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>outflow</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>albumin</t>
+  </si>
+  <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>On.the.Uptake.of.Materials.by.the.Intact.Liver_[Dog]_Goresky1973</t>
   </si>
   <si>
-    <t>galactose 5mg/100ml | glucose 117 mg/100ml</t>
+    <t>A : galactose 5mg/100ml | glucose 117 mg/100ml</t>
   </si>
   <si>
     <t>1000 * outflow fraction/ml</t>
@@ -55,7 +79,25 @@
     <t>Galactose</t>
   </si>
   <si>
-    <t>galactose 225mg/100ml | glucose 103 mg/100ml</t>
+    <t>B: galactose 225mg/100ml | glucose 103 mg/100ml</t>
+  </si>
+  <si>
+    <t>C: galactose 225mg/100ml | glucose 103 mg/100ml</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>galactose</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>Kinetic.Interpretation.of.Hepatic.Multiple-indicator.Dilution.Studies_Goresky1983</t>
@@ -77,10 +119,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="165"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,8 +178,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -147,22 +189,19 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,7 +217,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC3D69B"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -197,6 +236,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -234,7 +279,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -267,6 +312,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -276,6 +325,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -313,7 +366,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFF5A574"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -324,7 +377,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC3D69B"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFF6C4AE"/>
@@ -351,7 +404,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -386,7 +439,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -464,7 +517,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -530,7 +583,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -608,7 +661,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -660,11 +713,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="18205821"/>
-        <c:axId val="1505323"/>
+        <c:axId val="86608457"/>
+        <c:axId val="22906897"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18205821"/>
+        <c:axId val="86608457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -706,12 +759,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1505323"/>
+        <c:crossAx val="22906897"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505323"/>
+        <c:axId val="22906897"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -753,7 +806,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18205821"/>
+        <c:crossAx val="86608457"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="1000"/>
       </c:valAx>
@@ -787,7 +840,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -822,7 +875,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -990,7 +1043,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1110,7 +1163,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1236,7 +1289,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1336,11 +1389,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="16681394"/>
-        <c:axId val="45386879"/>
+        <c:axId val="51647649"/>
+        <c:axId val="34719725"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16681394"/>
+        <c:axId val="51647649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1382,12 +1435,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="45386879"/>
+        <c:crossAx val="34719725"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45386879"/>
+        <c:axId val="34719725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1480,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16681394"/>
+        <c:crossAx val="51647649"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1460,7 +1513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1495,7 +1548,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1663,7 +1716,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1783,7 +1836,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -1909,7 +1962,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -2009,11 +2062,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="31523842"/>
-        <c:axId val="40998562"/>
+        <c:axId val="42957634"/>
+        <c:axId val="39900338"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31523842"/>
+        <c:axId val="42957634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2055,12 +2108,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40998562"/>
+        <c:crossAx val="39900338"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40998562"/>
+        <c:axId val="39900338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:logBase val="10"/>
@@ -2102,7 +2155,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31523842"/>
+        <c:crossAx val="42957634"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2135,7 +2188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2170,7 +2223,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -2302,7 +2355,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -2428,7 +2481,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -2572,7 +2625,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -2696,11 +2749,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="7691801"/>
-        <c:axId val="33756720"/>
+        <c:axId val="72023817"/>
+        <c:axId val="11003039"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7691801"/>
+        <c:axId val="72023817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2742,12 +2795,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33756720"/>
+        <c:crossAx val="11003039"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33756720"/>
+        <c:axId val="11003039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,7 +2840,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7691801"/>
+        <c:crossAx val="72023817"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2820,7 +2873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2855,7 +2908,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -2987,7 +3040,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -3113,7 +3166,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -3257,7 +3310,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -3381,11 +3434,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="46786181"/>
-        <c:axId val="66885291"/>
+        <c:axId val="15805184"/>
+        <c:axId val="4138535"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46786181"/>
+        <c:axId val="15805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3427,12 +3480,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66885291"/>
+        <c:crossAx val="4138535"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66885291"/>
+        <c:axId val="4138535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:logBase val="10"/>
@@ -3474,7 +3527,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46786181"/>
+        <c:crossAx val="15805184"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3507,7 +3560,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3542,7 +3595,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -3656,7 +3709,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -3788,7 +3841,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -3906,11 +3959,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="7220794"/>
-        <c:axId val="6616317"/>
+        <c:axId val="63574453"/>
+        <c:axId val="84961501"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7220794"/>
+        <c:axId val="63574453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3952,12 +4005,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="6616317"/>
+        <c:crossAx val="84961501"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6616317"/>
+        <c:axId val="84961501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +4050,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="7220794"/>
+        <c:crossAx val="63574453"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4030,7 +4083,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4065,7 +4118,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -4197,7 +4250,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -4353,7 +4406,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -4495,11 +4548,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87675823"/>
-        <c:axId val="93421838"/>
+        <c:axId val="54727007"/>
+        <c:axId val="75295869"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87675823"/>
+        <c:axId val="54727007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -4541,12 +4594,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93421838"/>
+        <c:crossAx val="75295869"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93421838"/>
+        <c:axId val="75295869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4586,7 +4639,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87675823"/>
+        <c:crossAx val="54727007"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4619,7 +4672,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4654,7 +4707,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -4768,7 +4821,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -4918,7 +4971,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -5066,11 +5119,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74240671"/>
-        <c:axId val="10093288"/>
+        <c:axId val="74088270"/>
+        <c:axId val="66724871"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74240671"/>
+        <c:axId val="74088270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -5112,12 +5165,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="10093288"/>
+        <c:crossAx val="66724871"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10093288"/>
+        <c:axId val="66724871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5157,7 +5210,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74240671"/>
+        <c:crossAx val="74088270"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5190,7 +5243,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5204,7 +5257,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Dilution Curves Goresky1983</a:t>
             </a:r>
           </a:p>
@@ -5243,7 +5296,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -5333,7 +5386,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -5429,7 +5482,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -5525,7 +5578,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -5621,7 +5674,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:smooth val="1"/>
           <c:xVal>
@@ -5721,11 +5774,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="31490716"/>
-        <c:axId val="53861173"/>
+        <c:axId val="10525051"/>
+        <c:axId val="67141952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31490716"/>
+        <c:axId val="10525051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5794,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>time [sec.]</a:t>
                 </a:r>
               </a:p>
@@ -5759,11 +5812,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53861173"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="67141952"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53861173"/>
+        <c:axId val="67141952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,7 +5832,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>1000 x outflow fraction in ml</a:t>
                 </a:r>
               </a:p>
@@ -5797,8 +5850,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31490716"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="10525051"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5837,15 +5890,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:colOff>74160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5860,8 +5913,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6285600" y="5739840"/>
-          <a:ext cx="3675960" cy="6256440"/>
+          <a:off x="6312600" y="5730840"/>
+          <a:ext cx="3675600" cy="6256080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5876,15 +5929,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>273240</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>512640</xdr:colOff>
+      <xdr:colOff>539280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5892,8 +5945,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6374160" y="365040"/>
-        <a:ext cx="4815360" cy="2337840"/>
+        <a:off x="6401160" y="356040"/>
+        <a:ext cx="4815000" cy="2337480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5906,15 +5959,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>637200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5922,8 +5975,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11287080" y="381240"/>
-        <a:ext cx="4968360" cy="2338200"/>
+        <a:off x="11314080" y="372240"/>
+        <a:ext cx="4968000" cy="2337840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5936,15 +5989,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>270720</xdr:colOff>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5952,8 +6005,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11466360" y="2784960"/>
-        <a:ext cx="4819680" cy="2338200"/>
+        <a:off x="11493360" y="2775960"/>
+        <a:ext cx="4819320" cy="2337840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5966,15 +6019,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>328320</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5982,8 +6035,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10208520" y="5483520"/>
-        <a:ext cx="6870960" cy="3294000"/>
+        <a:off x="10235520" y="5474520"/>
+        <a:ext cx="6870600" cy="3293640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5996,15 +6049,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>298800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:colOff>325440</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6012,8 +6065,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10205640" y="8817120"/>
-        <a:ext cx="6870960" cy="3294000"/>
+        <a:off x="10232640" y="8808120"/>
+        <a:ext cx="6870600" cy="3293640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6031,15 +6084,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>335520</xdr:colOff>
+      <xdr:colOff>362520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>272520</xdr:colOff>
+      <xdr:colOff>299160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6054,8 +6107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5620320" y="348120"/>
-          <a:ext cx="13664520" cy="5989680"/>
+          <a:off x="5647320" y="339120"/>
+          <a:ext cx="13664160" cy="5989320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6070,15 +6123,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>509040</xdr:colOff>
+      <xdr:colOff>536040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:colOff>249480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6086,8 +6139,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5793840" y="6400080"/>
-        <a:ext cx="5815080" cy="2743200"/>
+        <a:off x="5820840" y="6391080"/>
+        <a:ext cx="5814720" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6100,15 +6153,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>339840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6116,8 +6169,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11698920" y="6408360"/>
-        <a:ext cx="5814720" cy="2743200"/>
+        <a:off x="11725920" y="6399360"/>
+        <a:ext cx="5814360" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6130,15 +6183,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>149400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>443520</xdr:colOff>
+      <xdr:colOff>470160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6146,8 +6199,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17609400" y="6420240"/>
-        <a:ext cx="5659560" cy="2743200"/>
+        <a:off x="17636400" y="6411240"/>
+        <a:ext cx="5659200" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6165,15 +6218,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
+      <xdr:colOff>309960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>807120</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>20880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6188,8 +6241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8410680" y="650520"/>
-          <a:ext cx="4588200" cy="7499160"/>
+          <a:off x="8437680" y="641520"/>
+          <a:ext cx="4587840" cy="7403400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6204,15 +6257,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>737640</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:colOff>764280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6220,8 +6273,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="217080" y="2322360"/>
-        <a:ext cx="5397120" cy="4470480"/>
+        <a:off x="244080" y="2313360"/>
+        <a:ext cx="5396760" cy="4374720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6239,10 +6292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A62" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="D97" activeCellId="0" pane="topLeft" sqref="D97:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7307,6 +7360,851 @@
       </c>
       <c r="H49" s="0" t="n">
         <v>113.97777</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52">
+      <c r="A52" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="53">
+      <c r="A53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="54">
+      <c r="A54" s="0" t="n">
+        <v>11.485738</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>101.32352</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="55">
+      <c r="A55" s="0" t="n">
+        <v>12.491186</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>291.517</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="56">
+      <c r="A56" s="0" t="n">
+        <v>13.014514</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>575.06177</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="57">
+      <c r="A57" s="0" t="n">
+        <v>16.15448</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1443.7595</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="58">
+      <c r="A58" s="0" t="n">
+        <v>17.514307</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>2375.714</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="59">
+      <c r="A59" s="0" t="n">
+        <v>20.536835</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>2522.3425</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="60">
+      <c r="A60" s="0" t="n">
+        <v>25.673275</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>2009.4023</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="61">
+      <c r="A61" s="0" t="n">
+        <v>34.606934</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>901.29517</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="62">
+      <c r="A62" s="0" t="n">
+        <v>43.55501</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>449.33353</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="63">
+      <c r="A63" s="0" t="n">
+        <v>50.368572</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>256.71063</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="64">
+      <c r="A64" s="0" t="n">
+        <v>56.765945</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>163.02415</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="65">
+      <c r="A65" s="0" t="n">
+        <v>60.600246</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>120.45422</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
+      <c r="A66" s="0" t="n">
+        <v>63.155075</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>97.460915</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
+      <c r="A67" s="0" t="n">
+        <v>11.485738</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>101.32352</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
+      <c r="A68" s="0" t="n">
+        <v>12.491186</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>291.517</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="69">
+      <c r="A69" s="0" t="n">
+        <v>13.014514</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>575.06177</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="70">
+      <c r="A70" s="0" t="n">
+        <v>16.15448</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>1443.7595</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="71">
+      <c r="A71" s="0" t="n">
+        <v>17.514307</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>2375.714</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="72">
+      <c r="A72" s="0" t="n">
+        <v>20.536835</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>2522.3425</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="73">
+      <c r="A73" s="0" t="n">
+        <v>25.673275</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>2009.4023</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="74">
+      <c r="A74" s="0" t="n">
+        <v>34.606934</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>901.29517</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="75">
+      <c r="A75" s="0" t="n">
+        <v>43.55501</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>449.33353</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="76">
+      <c r="A76" s="0" t="n">
+        <v>50.368572</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>256.71063</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="77">
+      <c r="A77" s="0" t="n">
+        <v>56.765945</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>163.02415</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="78">
+      <c r="A78" s="0" t="n">
+        <v>60.600246</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>120.45422</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="79">
+      <c r="A79" s="0" t="n">
+        <v>63.155075</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>97.460915</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="80">
+      <c r="A80" s="0" t="n">
+        <v>12.344902</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>99.79071</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="81">
+      <c r="A81" s="0" t="n">
+        <v>13.787144</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>300.38934</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="82">
+      <c r="A82" s="0" t="n">
+        <v>15.155212</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>525.06537</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="83">
+      <c r="A83" s="0" t="n">
+        <v>15.627031</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>710.11633</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="84">
+      <c r="A84" s="0" t="n">
+        <v>17.431894</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>1298.6709</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="85">
+      <c r="A85" s="0" t="n">
+        <v>19.628222</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>1782.5723</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="86">
+      <c r="A86" s="0" t="n">
+        <v>25.236483</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>1920.5524</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="87">
+      <c r="A87" s="0" t="n">
+        <v>31.633854</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>1219.6472</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="88">
+      <c r="A88" s="0" t="n">
+        <v>38.88421</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>729.0378</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="89">
+      <c r="A89" s="0" t="n">
+        <v>44.43684</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>522.49225</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="90">
+      <c r="A90" s="0" t="n">
+        <v>49.57122</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>410.00137</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="91">
+      <c r="A91" s="0" t="n">
+        <v>55.12797</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>302.85162</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
+      <c r="A92" s="0" t="n">
+        <v>60.25823</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>230.57945</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="93">
+      <c r="A93" s="0" t="n">
+        <v>65.81704</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>172.91098</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="94">
+      <c r="A94" s="0" t="n">
+        <v>71.806465</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>129.65616</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="95">
+      <c r="A95" s="0" t="n">
+        <v>76.0755</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>98.72943</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="96">
+      <c r="A96" s="0" t="n">
+        <v>16.220411</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>99.72585</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="97">
+      <c r="A97" s="0" t="n">
+        <v>18.855593</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>145.39648</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="98">
+      <c r="A98" s="0" t="n">
+        <v>18.915342</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>225.27753</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="99">
+      <c r="A99" s="0" t="n">
+        <v>20.246326</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>300.064</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="100">
+      <c r="A100" s="0" t="n">
+        <v>22.883568</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>444.1375</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="101">
+      <c r="A101" s="0" t="n">
+        <v>26.390276</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>698.2127</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="102">
+      <c r="A102" s="0" t="n">
+        <v>33.739525</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>861.50476</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="103">
+      <c r="A103" s="0" t="n">
+        <v>43.206814</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>822.04443</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="104">
+      <c r="A104" s="0" t="n">
+        <v>48.792408</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>750.1414</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="105">
+      <c r="A105" s="0" t="n">
+        <v>58.663525</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>588.17084</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="106">
+      <c r="A106" s="0" t="n">
+        <v>65.100044</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>497.62445</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="107">
+      <c r="A107" s="0" t="n">
+        <v>77.111855</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>356.25497</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="108">
+      <c r="A108" s="0" t="n">
+        <v>87.40946</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>271.00366</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="109">
+      <c r="A109" s="0" t="n">
+        <v>93.84392</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>225.84787</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="110">
+      <c r="A110" s="0" t="n">
+        <v>101.56815</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>185.35544</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="111">
+      <c r="A111" s="0" t="n">
+        <v>112.29225</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>136.796</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="112">
+      <c r="A112" s="0" t="n">
+        <v>120.01854</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>113.97777</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7326,10 +8224,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="F21" activeCellId="0" pane="topLeft" sqref="F21"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A152" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="H50" activeCellId="1" pane="topLeft" sqref="D97:D112 H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7344,24 +8242,24 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
+      <c r="A2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
@@ -7380,10 +8278,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
@@ -7663,21 +8561,21 @@
         <v>0.11260135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="24">
+      <c r="A24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+      <c r="A25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="7" t="s">
@@ -7696,10 +8594,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
@@ -8053,23 +8951,26 @@
         <v>1.1752745</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="48">
+      <c r="A48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="49">
+      <c r="A49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="H49" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="50">
       <c r="A50" s="7" t="s">
         <v>2</v>
       </c>
@@ -8086,12 +8987,23 @@
         <v>2</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="K50" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>3.8277097</v>
       </c>
@@ -8110,8 +9022,20 @@
       <c r="F51" s="0" t="n">
         <v>0.097317144</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="H51" s="0" t="n">
+        <v>6.8381486</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>2.174543</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>4.200391</v>
       </c>
@@ -8130,8 +9054,20 @@
       <c r="F52" s="0" t="n">
         <v>0.4745439</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="H52" s="0" t="n">
+        <v>7.9688597</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>10.959793</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>5.4372354</v>
       </c>
@@ -8150,8 +9086,20 @@
       <c r="F53" s="0" t="n">
         <v>1.7036378</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="H53" s="0" t="n">
+        <v>9.357761</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>15.169429</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>6.835196</v>
       </c>
@@ -8170,8 +9118,20 @@
       <c r="F54" s="0" t="n">
         <v>2.7434452</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="H54" s="0" t="n">
+        <v>10.530135</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>9.356704</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>8.0289135</v>
       </c>
@@ -8190,8 +9150,20 @@
       <c r="F55" s="0" t="n">
         <v>2.869629</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
+      <c r="H55" s="0" t="n">
+        <v>11.861951</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>4.6224904</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>9.3105135</v>
       </c>
@@ -8210,8 +9182,20 @@
       <c r="F56" s="0" t="n">
         <v>2.493024</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57">
+      <c r="H56" s="0" t="n">
+        <v>13.194968</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>2.1493807</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>10.588858</v>
       </c>
@@ -8230,8 +9214,20 @@
       <c r="F57" s="0" t="n">
         <v>2.0786042</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58">
+      <c r="H57" s="0" t="n">
+        <v>14.447664</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1.1510888</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>11.863947</v>
       </c>
@@ -8250,8 +9246,20 @@
       <c r="F58" s="0" t="n">
         <v>1.8065857</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
+      <c r="H58" s="0" t="n">
+        <v>15.612427</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>1.0421475</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>13.04546</v>
       </c>
@@ -8270,8 +9278,20 @@
       <c r="F59" s="0" t="n">
         <v>1.6024337</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60">
+      <c r="H59" s="0" t="n">
+        <v>16.851501</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>1.109099</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>14.450743</v>
       </c>
@@ -8290,8 +9310,20 @@
       <c r="F60" s="0" t="n">
         <v>1.5425049</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
+      <c r="H60" s="0" t="n">
+        <v>18.01386</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>1.1335019</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>15.691657</v>
       </c>
@@ -8310,8 +9342,20 @@
       <c r="F61" s="0" t="n">
         <v>1.3409306</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
+      <c r="H61" s="0" t="n">
+        <v>19.333258</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>1.0473821</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="62">
       <c r="C62" s="0" t="n">
         <v>18.112455</v>
       </c>
@@ -8324,8 +9368,20 @@
       <c r="F62" s="0" t="n">
         <v>1.2650597</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="H62" s="0" t="n">
+        <v>9.323509</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>1.7122039</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="63">
       <c r="C63" s="0" t="n">
         <v>19.523436</v>
       </c>
@@ -8338,8 +9394,20 @@
       <c r="F63" s="0" t="n">
         <v>1.21827</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
+      <c r="H63" s="0" t="n">
+        <v>10.468642</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>4.1706176</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="64">
       <c r="C64" s="0" t="n">
         <v>20.620321</v>
       </c>
@@ -8352,8 +9420,20 @@
       <c r="F64" s="0" t="n">
         <v>1.126436</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
+      <c r="H64" s="0" t="n">
+        <v>11.700507</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>6.3846374</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="65">
       <c r="C65" s="0" t="n">
         <v>21.951557</v>
       </c>
@@ -8366,8 +9446,20 @@
       <c r="F65" s="0" t="n">
         <v>1.1073036</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="H65" s="0" t="n">
+        <v>12.861664</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>6.9327245</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
       <c r="C66" s="0" t="n">
         <v>23.281166</v>
       </c>
@@ -8380,8 +9472,20 @@
       <c r="F66" s="0" t="n">
         <v>1.0663486</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="H66" s="0" t="n">
+        <v>14.493533</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>5.677232</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
       <c r="C67" s="0" t="n">
         <v>24.609146</v>
       </c>
@@ -8394,37 +9498,1791 @@
       <c r="F67" s="0" t="n">
         <v>1.0482368</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
+      <c r="H67" s="0" t="n">
+        <v>15.582782</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>4.645709</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
       <c r="E68" s="0" t="n">
         <v>25.923294</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1.0096827</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="69">
+      <c r="H68" s="0" t="n">
+        <v>16.750349</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>3.6514792</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="69">
       <c r="E69" s="0" t="n">
         <v>27.173159</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>1.0131478</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70">
+      <c r="H69" s="0" t="n">
+        <v>18.073751</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>2.7569728</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="70">
       <c r="E70" s="0" t="n">
         <v>28.42465</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0.9756753</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71">
+      <c r="H70" s="0" t="n">
+        <v>19.397154</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>2.0815945</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="71">
       <c r="E71" s="0" t="n">
         <v>29.597212</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0.95889825</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>20.564322</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>1.669494</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="72">
+      <c r="H72" s="0" t="n">
+        <v>21.881313</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>1.7414035</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="73">
+      <c r="H73" s="0" t="n">
+        <v>23.20632</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>1.2127613</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="74">
+      <c r="H74" s="0" t="n">
+        <v>24.370682</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>1.1203858</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="75">
+      <c r="H75" s="0" t="n">
+        <v>25.534643</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>1.0561651</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="76">
+      <c r="H76" s="0" t="n">
+        <v>9.427868</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>0.44246763</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="77">
+      <c r="H77" s="0" t="n">
+        <v>10.576606</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>0.89862615</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="78">
+      <c r="H78" s="0" t="n">
+        <v>11.891195</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>1.0580962</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="79">
+      <c r="H79" s="0" t="n">
+        <v>13.1306715</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>1.1035559</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="80">
+      <c r="H80" s="0" t="n">
+        <v>14.450869</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>0.9793398</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="81">
+      <c r="H81" s="0" t="n">
+        <v>15.617234</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0.8178356</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="82">
+      <c r="H82" s="0" t="n">
+        <v>16.938633</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0.6831079</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="83">
+      <c r="H83" s="0" t="n">
+        <v>18.02708</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>0.58203423</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="84">
+      <c r="H84" s="0" t="n">
+        <v>19.4268</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>0.46695316</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="85">
+      <c r="H85" s="0" t="n">
+        <v>20.593164</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>0.38994732</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="86">
+      <c r="H86" s="0" t="n">
+        <v>21.992882</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>0.31284606</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="87">
+      <c r="H87" s="0" t="n">
+        <v>23.159649</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>0.25603032</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="88">
+      <c r="H88" s="0" t="n">
+        <v>24.40393</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>0.20955472</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="89">
+      <c r="H89" s="0" t="n">
+        <v>25.570698</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>0.17149763</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="90">
+      <c r="H90" s="0" t="n">
+        <v>27.048332</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>0.13485166</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="91">
+      <c r="H91" s="0" t="n">
+        <v>28.13718</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>0.11260135</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
+      <c r="H92" s="0" t="n">
+        <v>6.4611425</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>0.097264044</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="93">
+      <c r="H93" s="0" t="n">
+        <v>7.5938735</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>11.714277</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="94">
+      <c r="H94" s="0" t="n">
+        <v>8.852321</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>13.545017</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="95">
+      <c r="H95" s="0" t="n">
+        <v>10.049196</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>9.80027</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="96">
+      <c r="H96" s="0" t="n">
+        <v>11.248828</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>6.4039626</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="97">
+      <c r="H97" s="0" t="n">
+        <v>12.450115</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>3.9365053</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="98">
+      <c r="H98" s="0" t="n">
+        <v>13.725655</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>2.4201295</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="99">
+      <c r="H99" s="0" t="n">
+        <v>14.924736</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>1.6139828</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="100">
+      <c r="H100" s="0" t="n">
+        <v>15.974759</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>1.0981895</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="101">
+      <c r="H101" s="0" t="n">
+        <v>17.172186</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>0.77854955</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="102">
+      <c r="H102" s="0" t="n">
+        <v>18.44166</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>0.5989067</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="103">
+      <c r="H103" s="0" t="n">
+        <v>19.633574</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>0.5205515</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="104">
+      <c r="H104" s="0" t="n">
+        <v>20.747374</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>0.5217343</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="105">
+      <c r="H105" s="0" t="n">
+        <v>21.934324</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>0.5447534</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="106">
+      <c r="H106" s="0" t="n">
+        <v>6.980916</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>0.09736712</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="107">
+      <c r="H107" s="0" t="n">
+        <v>7.7276764</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>1.2972659</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="108">
+      <c r="H108" s="0" t="n">
+        <v>8.811702</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>3.9074266</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="109">
+      <c r="H109" s="0" t="n">
+        <v>9.9859705</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>6.5190034</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="110">
+      <c r="H110" s="0" t="n">
+        <v>11.2427635</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>8.012978</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="111">
+      <c r="H111" s="0" t="n">
+        <v>12.431919</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>7.711631</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="112">
+      <c r="H112" s="0" t="n">
+        <v>13.624935</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>6.4350457</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="113">
+      <c r="H113" s="0" t="n">
+        <v>14.893858</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>5.0521255</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="114">
+      <c r="H114" s="0" t="n">
+        <v>15.93947</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>4.046215</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="115">
+      <c r="H115" s="0" t="n">
+        <v>17.209496</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>3.0498068</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="116">
+      <c r="H116" s="0" t="n">
+        <v>18.480625</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>2.2069707</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="117">
+      <c r="H117" s="0" t="n">
+        <v>19.601593</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>1.6972195</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="118">
+      <c r="H118" s="0" t="n">
+        <v>20.870516</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>1.3324794</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="119">
+      <c r="H119" s="0" t="n">
+        <v>21.98983</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>1.0893078</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="120">
+      <c r="H120" s="0" t="n">
+        <v>23.183949</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>0.8726838</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="121">
+      <c r="H121" s="0" t="n">
+        <v>24.451218</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>0.7283297</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="122">
+      <c r="H122" s="0" t="n">
+        <v>25.643682</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>0.62027323</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="123">
+      <c r="H123" s="0" t="n">
+        <v>26.684332</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0.59676576</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="124">
+      <c r="H124" s="0" t="n">
+        <v>7.2031245</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>0.09941663</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="125">
+      <c r="H125" s="0" t="n">
+        <v>7.7535915</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>0.49785146</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="126">
+      <c r="H126" s="0" t="n">
+        <v>8.920692</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>1.0825162</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="127">
+      <c r="H127" s="0" t="n">
+        <v>10.097718</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>1.6310865</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="128">
+      <c r="H128" s="0" t="n">
+        <v>11.279155</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>2.0879645</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="129">
+      <c r="H129" s="0" t="n">
+        <v>12.465553</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>2.2249653</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="130">
+      <c r="H130" s="0" t="n">
+        <v>13.655261</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>2.098099</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="131">
+      <c r="H131" s="0" t="n">
+        <v>14.843865</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>2.0607622</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="132">
+      <c r="H132" s="0" t="n">
+        <v>15.958769</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>1.9829624</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="133">
+      <c r="H133" s="0" t="n">
+        <v>17.222729</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>1.870178</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="134">
+      <c r="H134" s="0" t="n">
+        <v>18.411335</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>1.836897</v>
+      </c>
+      <c r="J134" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="135">
+      <c r="H135" s="0" t="n">
+        <v>19.675295</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>1.7324204</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="136">
+      <c r="H136" s="0" t="n">
+        <v>20.717047</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>1.6002029</v>
+      </c>
+      <c r="J136" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K136" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="137">
+      <c r="H137" s="0" t="n">
+        <v>21.83195</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>1.5397906</v>
+      </c>
+      <c r="J137" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="138">
+      <c r="H138" s="0" t="n">
+        <v>23.170715</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>1.4231356</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="139">
+      <c r="H139" s="0" t="n">
+        <v>24.35932</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>1.3978101</v>
+      </c>
+      <c r="J139" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="140">
+      <c r="H140" s="0" t="n">
+        <v>25.622177</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>1.373143</v>
+      </c>
+      <c r="J140" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="141">
+      <c r="H141" s="0" t="n">
+        <v>26.811886</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>1.2948472</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="142">
+      <c r="H142" s="0" t="n">
+        <v>28.001593</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>1.2210158</v>
+      </c>
+      <c r="J142" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="143">
+      <c r="H143" s="0" t="n">
+        <v>29.265003</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>1.1752745</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="144">
+      <c r="H144" s="0" t="n">
+        <v>3.8277097</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>0.09901982</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="145">
+      <c r="H145" s="0" t="n">
+        <v>4.200391</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>1.121382</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="146">
+      <c r="H146" s="0" t="n">
+        <v>5.4372354</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>11.252305</v>
+      </c>
+      <c r="J146" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="147">
+      <c r="H147" s="0" t="n">
+        <v>6.835196</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>13.873718</v>
+      </c>
+      <c r="J147" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="148">
+      <c r="H148" s="0" t="n">
+        <v>8.0289135</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>7.989854</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="149">
+      <c r="H149" s="0" t="n">
+        <v>9.3105135</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>3.5962086</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="150">
+      <c r="H150" s="0" t="n">
+        <v>10.588858</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>1.7573647</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="151">
+      <c r="H151" s="0" t="n">
+        <v>11.863947</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>0.9323734</v>
+      </c>
+      <c r="J151" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="152">
+      <c r="H152" s="0" t="n">
+        <v>13.04546</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>0.73088986</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="153">
+      <c r="H153" s="0" t="n">
+        <v>14.450743</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>0.74895144</v>
+      </c>
+      <c r="J153" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="154">
+      <c r="H154" s="0" t="n">
+        <v>15.691657</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>0.94220793</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="155">
+      <c r="H155" s="0" t="n">
+        <v>4.687805</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>0.097233824</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="156">
+      <c r="H156" s="0" t="n">
+        <v>5.5365086</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>0.91634095</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="157">
+      <c r="H157" s="0" t="n">
+        <v>6.732668</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>3.570886</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="158">
+      <c r="H158" s="0" t="n">
+        <v>7.9613757</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>6.1148415</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="159">
+      <c r="H159" s="0" t="n">
+        <v>9.285288</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>6.801502</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="160">
+      <c r="H160" s="0" t="n">
+        <v>10.619779</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>5.7911377</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="161">
+      <c r="H161" s="0" t="n">
+        <v>11.881848</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>4.269094</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="162">
+      <c r="H162" s="0" t="n">
+        <v>13.143919</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>3.1470783</v>
+      </c>
+      <c r="J162" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="163">
+      <c r="H163" s="0" t="n">
+        <v>14.405175</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>2.3681388</v>
+      </c>
+      <c r="J163" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="164">
+      <c r="H164" s="0" t="n">
+        <v>15.668059</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>1.7102171</v>
+      </c>
+      <c r="J164" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="165">
+      <c r="H165" s="0" t="n">
+        <v>16.773895</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>1.2601931</v>
+      </c>
+      <c r="J165" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="166">
+      <c r="H166" s="0" t="n">
+        <v>18.112455</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>0.9681829</v>
+      </c>
+      <c r="J166" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="167">
+      <c r="H167" s="0" t="n">
+        <v>19.523436</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>0.85914195</v>
+      </c>
+      <c r="J167" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="168">
+      <c r="H168" s="0" t="n">
+        <v>20.620321</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>0.79369915</v>
+      </c>
+      <c r="J168" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="169">
+      <c r="H169" s="0" t="n">
+        <v>21.951557</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>0.7337125</v>
+      </c>
+      <c r="J169" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="170">
+      <c r="H170" s="0" t="n">
+        <v>23.281166</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>0.7067265</v>
+      </c>
+      <c r="J170" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="171">
+      <c r="H171" s="0" t="n">
+        <v>24.609146</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>0.70930386</v>
+      </c>
+      <c r="J171" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="172">
+      <c r="H172" s="0" t="n">
+        <v>5.0002713</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>0.097317144</v>
+      </c>
+      <c r="J172" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K172" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="173">
+      <c r="H173" s="0" t="n">
+        <v>5.484431</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>0.4745439</v>
+      </c>
+      <c r="J173" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K173" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="174">
+      <c r="H174" s="0" t="n">
+        <v>6.7619615</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>1.7036378</v>
+      </c>
+      <c r="J174" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K174" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="175">
+      <c r="H175" s="0" t="n">
+        <v>8.071227</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>2.7434452</v>
+      </c>
+      <c r="J175" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K175" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="176">
+      <c r="H176" s="0" t="n">
+        <v>9.4756975</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>2.869629</v>
+      </c>
+      <c r="J176" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K176" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="177">
+      <c r="H177" s="0" t="n">
+        <v>10.653141</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>2.493024</v>
+      </c>
+      <c r="J177" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K177" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="178">
+      <c r="H178" s="0" t="n">
+        <v>11.832212</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>2.0786042</v>
+      </c>
+      <c r="J178" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K178" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="179">
+      <c r="H179" s="0" t="n">
+        <v>13.165889</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>1.8065857</v>
+      </c>
+      <c r="J179" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K179" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="180">
+      <c r="H180" s="0" t="n">
+        <v>14.420636</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>1.6024337</v>
+      </c>
+      <c r="J180" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K180" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="181">
+      <c r="H181" s="0" t="n">
+        <v>15.515895</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>1.5425049</v>
+      </c>
+      <c r="J181" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K181" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="182">
+      <c r="H182" s="0" t="n">
+        <v>16.927689</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>1.3409306</v>
+      </c>
+      <c r="J182" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K182" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="183">
+      <c r="H183" s="0" t="n">
+        <v>18.179993</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>1.2650597</v>
+      </c>
+      <c r="J183" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K183" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="184">
+      <c r="H184" s="0" t="n">
+        <v>19.431486</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>1.21827</v>
+      </c>
+      <c r="J184" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K184" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="185">
+      <c r="H185" s="0" t="n">
+        <v>20.840837</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>1.126436</v>
+      </c>
+      <c r="J185" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K185" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="186">
+      <c r="H186" s="0" t="n">
+        <v>22.091516</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>1.1073036</v>
+      </c>
+      <c r="J186" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K186" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="187">
+      <c r="H187" s="0" t="n">
+        <v>23.343008</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>1.0663486</v>
+      </c>
+      <c r="J187" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K187" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="188">
+      <c r="H188" s="0" t="n">
+        <v>24.593685</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>1.0482368</v>
+      </c>
+      <c r="J188" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="189">
+      <c r="H189" s="0" t="n">
+        <v>25.923294</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>1.0096827</v>
+      </c>
+      <c r="J189" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K189" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="190">
+      <c r="H190" s="0" t="n">
+        <v>27.173159</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>1.0131478</v>
+      </c>
+      <c r="J190" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K190" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="191">
+      <c r="H191" s="0" t="n">
+        <v>28.42465</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>0.9756753</v>
+      </c>
+      <c r="J191" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K191" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="192">
+      <c r="H192" s="0" t="n">
+        <v>29.597212</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>0.95889825</v>
+      </c>
+      <c r="J192" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K192" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8444,10 +11302,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="A42" activeCellId="0" pane="topLeft" sqref="A42"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="R4" activeCellId="1" pane="topLeft" sqref="D97:D112 R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8457,7 +11315,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8466,18 +11324,18 @@
       <c r="F1" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
@@ -8490,7 +11348,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>2</v>
@@ -8502,13 +11360,22 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
@@ -8542,6 +11409,15 @@
       <c r="J5" s="0" t="n">
         <v>0.09248369</v>
       </c>
+      <c r="R5" s="0" t="n">
+        <v>1.5834284</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0.17678298</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
@@ -8574,6 +11450,15 @@
       <c r="J6" s="0" t="n">
         <v>0.3377428</v>
       </c>
+      <c r="R6" s="0" t="n">
+        <v>3.0903099</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>6.3591857</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
@@ -8606,6 +11491,15 @@
       <c r="J7" s="0" t="n">
         <v>0.5369874</v>
       </c>
+      <c r="R7" s="0" t="n">
+        <v>4.9766455</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>14.288503</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
@@ -8638,6 +11532,15 @@
       <c r="J8" s="0" t="n">
         <v>0.7824284</v>
       </c>
+      <c r="R8" s="0" t="n">
+        <v>6.684267</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>9.0576725</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
@@ -8670,6 +11573,15 @@
       <c r="J9" s="0" t="n">
         <v>1.005044</v>
       </c>
+      <c r="R9" s="0" t="n">
+        <v>8.357989</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>4.2411547</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
@@ -8702,6 +11614,15 @@
       <c r="J10" s="0" t="n">
         <v>1.2961358</v>
       </c>
+      <c r="R10" s="0" t="n">
+        <v>9.95251</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>2.324096</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
@@ -8734,6 +11655,15 @@
       <c r="J11" s="0" t="n">
         <v>1.472555</v>
       </c>
+      <c r="R11" s="0" t="n">
+        <v>14.274445</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0.41749522</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="C12" s="0" t="n">
@@ -8760,6 +11690,15 @@
       <c r="J12" s="0" t="n">
         <v>1.6486105</v>
       </c>
+      <c r="R12" s="0" t="n">
+        <v>3.099058</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1.1821908</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
       <c r="I13" s="0" t="n">
@@ -8768,6 +11707,15 @@
       <c r="J13" s="0" t="n">
         <v>1.9172406</v>
       </c>
+      <c r="R13" s="0" t="n">
+        <v>5.053661</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>5.406795</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="I14" s="0" t="n">
@@ -8776,6 +11724,15 @@
       <c r="J14" s="0" t="n">
         <v>1.9554344</v>
       </c>
+      <c r="R14" s="0" t="n">
+        <v>6.586787</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>7.7006087</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="I15" s="0" t="n">
@@ -8784,6 +11741,15 @@
       <c r="J15" s="0" t="n">
         <v>1.9477956</v>
       </c>
+      <c r="R15" s="0" t="n">
+        <v>8.470467</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>6.702567</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="I16" s="0" t="n">
@@ -8792,6 +11758,15 @@
       <c r="J16" s="0" t="n">
         <v>1.9859896</v>
       </c>
+      <c r="R16" s="0" t="n">
+        <v>10.070298</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>5.1766315</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
       <c r="I17" s="0" t="n">
@@ -8800,23 +11775,312 @@
       <c r="J17" s="0" t="n">
         <v>1.8176638</v>
       </c>
+      <c r="R17" s="0" t="n">
+        <v>11.708715</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>3.5814924</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="R18" s="0" t="n">
+        <v>14.881977</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>1.4961078</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
+      <c r="R19" s="0" t="n">
+        <v>20.755629</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0.34165314</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>3.1668568</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0.35356596</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="R21" s="0" t="n">
+        <v>6.666927</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>4.870171</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
+      <c r="R22" s="0" t="n">
+        <v>8.42407</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>6.196589</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
+      <c r="R23" s="0" t="n">
+        <v>10.038274</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>5.728987</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
+      <c r="R24" s="0" t="n">
+        <v>11.645916</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>4.778233</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+      <c r="R25" s="0" t="n">
+        <v>13.526158</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>3.5271115</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
+      <c r="R26" s="0" t="n">
+        <v>15.055067</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>2.5997283</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
+      <c r="R27" s="0" t="n">
+        <v>16.74488</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>1.878683</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
+      <c r="R28" s="0" t="n">
+        <v>3.0884352</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0.39994422</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
+      <c r="R29" s="0" t="n">
+        <v>6.666927</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>4.870171</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
+      <c r="R30" s="0" t="n">
+        <v>8.42407</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>6.196589</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
+      <c r="R31" s="0" t="n">
+        <v>10.038274</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>5.728987</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
+      <c r="R32" s="0" t="n">
+        <v>11.645916</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>4.778233</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
+      <c r="R33" s="0" t="n">
+        <v>13.526158</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>3.5271115</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
+      <c r="R34" s="0" t="n">
+        <v>15.055067</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>2.5997283</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
+      <c r="R35" s="0" t="n">
+        <v>16.74488</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>1.878683</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
+      <c r="R36" s="0" t="n">
+        <v>4.9024415</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>0.09248369</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37">
+      <c r="R37" s="0" t="n">
+        <v>6.605377</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>0.3377428</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
+      <c r="R38" s="0" t="n">
+        <v>8.307688</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>0.5369874</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
+      <c r="R39" s="0" t="n">
+        <v>9.9711</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>0.7824284</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
+      <c r="R40" s="0" t="n">
+        <v>11.594676</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>1.005044</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
+      <c r="R41" s="0" t="n">
+        <v>13.33776</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>1.2961358</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>15.000235</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>1.472555</v>
+      </c>
+      <c r="T42" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43">
-      <c r="A43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="R43" s="0" t="n">
+        <v>16.741756</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1.6486105</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
       <c r="A44" s="7" t="s">
@@ -8829,7 +12093,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>2</v>
@@ -8841,13 +12105,66 @@
         <v>2</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>18.365957</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>1.9172406</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
+      <c r="R45" s="0" t="n">
+        <v>20.06608</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>1.9554344</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46">
+      <c r="R46" s="0" t="n">
+        <v>21.726055</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>1.9477956</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47">
+      <c r="R47" s="0" t="n">
+        <v>23.42618</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>1.9859896</v>
+      </c>
+      <c r="T47" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
+      <c r="R48" s="0" t="n">
+        <v>25.004921</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>1.8176638</v>
+      </c>
+      <c r="T48" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
